--- a/streamlit/stock_real_data.xlsx
+++ b/streamlit/stock_real_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RF3"/>
+  <dimension ref="A1:RE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2800,11 +2800,6 @@
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
           <t>fecha</t>
         </is>
       </c>
@@ -2850,13 +2845,13 @@
         <v>100.91</v>
       </c>
       <c r="N2" t="n">
-        <v>76.59999999999999</v>
+        <v>76.55</v>
       </c>
       <c r="O2" t="n">
         <v>94.93000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>204.35</v>
+        <v>205.11</v>
       </c>
       <c r="Q2" t="n">
         <v>131.35</v>
@@ -2874,7 +2869,7 @@
         <v>53.28</v>
       </c>
       <c r="V2" t="n">
-        <v>230.09</v>
+        <v>228.58</v>
       </c>
       <c r="W2" t="n">
         <v>9.960000000000001</v>
@@ -2922,7 +2917,7 @@
         <v>22.33</v>
       </c>
       <c r="AL2" t="n">
-        <v>241.19</v>
+        <v>236.57</v>
       </c>
       <c r="AM2" t="n">
         <v>180.69</v>
@@ -2937,7 +2932,7 @@
         <v>45.13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>109.66</v>
+        <v>109.64</v>
       </c>
       <c r="AR2" t="n">
         <v>324.36</v>
@@ -2964,7 +2959,7 @@
         <v>180.68</v>
       </c>
       <c r="AZ2" t="n">
-        <v>665.38</v>
+        <v>663.78</v>
       </c>
       <c r="BA2" t="n">
         <v>46.34</v>
@@ -3018,7 +3013,7 @@
         <v>56.09</v>
       </c>
       <c r="BR2" t="n">
-        <v>235.49</v>
+        <v>236.2</v>
       </c>
       <c r="BS2" t="n">
         <v>242.49</v>
@@ -3060,7 +3055,7 @@
         <v>63.49</v>
       </c>
       <c r="CF2" t="n">
-        <v>63.39</v>
+        <v>62.92</v>
       </c>
       <c r="CG2" t="n">
         <v>351.65</v>
@@ -3240,7 +3235,7 @@
         <v>55.84</v>
       </c>
       <c r="EN2" t="n">
-        <v>419.84</v>
+        <v>432.19</v>
       </c>
       <c r="EO2" t="n">
         <v>200.93</v>
@@ -3423,7 +3418,7 @@
         <v>121.19</v>
       </c>
       <c r="GW2" t="n">
-        <v>212.6</v>
+        <v>207.26</v>
       </c>
       <c r="GX2" t="n">
         <v>648.14</v>
@@ -3474,7 +3469,7 @@
         <v>16.27</v>
       </c>
       <c r="HN2" t="n">
-        <v>127.94</v>
+        <v>128.11</v>
       </c>
       <c r="HO2" t="n">
         <v>32.99</v>
@@ -3636,7 +3631,7 @@
         <v>197.63</v>
       </c>
       <c r="JP2" t="n">
-        <v>28.86</v>
+        <v>28.93</v>
       </c>
       <c r="JQ2" t="n">
         <v>148.99</v>
@@ -3783,7 +3778,7 @@
         <v>133.46</v>
       </c>
       <c r="LM2" t="n">
-        <v>134.95</v>
+        <v>130.87</v>
       </c>
       <c r="LN2" t="n">
         <v>7306.08</v>
@@ -3822,7 +3817,7 @@
         <v>204.76</v>
       </c>
       <c r="LZ2" t="n">
-        <v>117.49</v>
+        <v>117.05</v>
       </c>
       <c r="MA2" t="n">
         <v>196.55</v>
@@ -3966,7 +3961,7 @@
         <v>208.18</v>
       </c>
       <c r="NV2" t="n">
-        <v>41.41</v>
+        <v>41.42</v>
       </c>
       <c r="NW2" t="n">
         <v>99.23999999999999</v>
@@ -4038,7 +4033,7 @@
         <v>85.06</v>
       </c>
       <c r="OT2" t="n">
-        <v>204.43</v>
+        <v>200.68</v>
       </c>
       <c r="OU2" t="n">
         <v>127.52</v>
@@ -4110,7 +4105,7 @@
         <v>248.53</v>
       </c>
       <c r="PR2" t="n">
-        <v>100.86</v>
+        <v>104.23</v>
       </c>
       <c r="PS2" t="n">
         <v>113.99</v>
@@ -4152,7 +4147,7 @@
         <v>351.03</v>
       </c>
       <c r="QF2" t="n">
-        <v>165.46</v>
+        <v>166.61</v>
       </c>
       <c r="QG2" t="n">
         <v>263.5</v>
@@ -4227,9 +4222,6 @@
         <v>173.82</v>
       </c>
       <c r="RE2" s="2" t="n">
-        <v>45701</v>
-      </c>
-      <c r="RF2" s="2" t="n">
         <v>45701</v>
       </c>
     </row>
@@ -4274,13 +4266,13 @@
         <v>99.52</v>
       </c>
       <c r="N3" t="n">
-        <v>78.97</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="O3" t="n">
         <v>95.67</v>
       </c>
       <c r="P3" t="n">
-        <v>205.71</v>
+        <v>204.35</v>
       </c>
       <c r="Q3" t="n">
         <v>132.88</v>
@@ -4298,7 +4290,7 @@
         <v>53.53</v>
       </c>
       <c r="V3" t="n">
-        <v>228.61</v>
+        <v>230.09</v>
       </c>
       <c r="W3" t="n">
         <v>10.06</v>
@@ -4346,7 +4338,7 @@
         <v>22.45</v>
       </c>
       <c r="AL3" t="n">
-        <v>244.3</v>
+        <v>241.19</v>
       </c>
       <c r="AM3" t="n">
         <v>184.06</v>
@@ -4361,7 +4353,7 @@
         <v>45.66</v>
       </c>
       <c r="AQ3" t="n">
-        <v>106.64</v>
+        <v>109.66</v>
       </c>
       <c r="AR3" t="n">
         <v>328.36</v>
@@ -4388,7 +4380,7 @@
         <v>182.7</v>
       </c>
       <c r="AZ3" t="n">
-        <v>683.33</v>
+        <v>665.38</v>
       </c>
       <c r="BA3" t="n">
         <v>46.06</v>
@@ -4442,7 +4434,7 @@
         <v>55.89</v>
       </c>
       <c r="BR3" t="n">
-        <v>232.74</v>
+        <v>235.49</v>
       </c>
       <c r="BS3" t="n">
         <v>242.71</v>
@@ -4484,7 +4476,7 @@
         <v>63.58</v>
       </c>
       <c r="CF3" t="n">
-        <v>63.4</v>
+        <v>62.98</v>
       </c>
       <c r="CG3" t="n">
         <v>353.44</v>
@@ -4664,7 +4656,7 @@
         <v>56.62</v>
       </c>
       <c r="EN3" t="n">
-        <v>420.37</v>
+        <v>428.58</v>
       </c>
       <c r="EO3" t="n">
         <v>202.53</v>
@@ -4847,7 +4839,7 @@
         <v>123.18</v>
       </c>
       <c r="GW3" t="n">
-        <v>182.22</v>
+        <v>212.6</v>
       </c>
       <c r="GX3" t="n">
         <v>648.02</v>
@@ -4898,7 +4890,7 @@
         <v>16.38</v>
       </c>
       <c r="HN3" t="n">
-        <v>133.24</v>
+        <v>127.94</v>
       </c>
       <c r="HO3" t="n">
         <v>33.24</v>
@@ -5060,7 +5052,7 @@
         <v>197.24</v>
       </c>
       <c r="JP3" t="n">
-        <v>28.49</v>
+        <v>28.71</v>
       </c>
       <c r="JQ3" t="n">
         <v>153.62</v>
@@ -5207,7 +5199,7 @@
         <v>135.44</v>
       </c>
       <c r="LM3" t="n">
-        <v>138.56</v>
+        <v>134.95</v>
       </c>
       <c r="LN3" t="n">
         <v>7330.68</v>
@@ -5246,7 +5238,7 @@
         <v>212.21</v>
       </c>
       <c r="LZ3" t="n">
-        <v>118.72</v>
+        <v>117.49</v>
       </c>
       <c r="MA3" t="n">
         <v>201.68</v>
@@ -5390,7 +5382,7 @@
         <v>207.91</v>
       </c>
       <c r="NV3" t="n">
-        <v>42.01</v>
+        <v>42.07</v>
       </c>
       <c r="NW3" t="n">
         <v>101.39</v>
@@ -5462,7 +5454,7 @@
         <v>86.54000000000001</v>
       </c>
       <c r="OT3" t="n">
-        <v>205.33</v>
+        <v>204.43</v>
       </c>
       <c r="OU3" t="n">
         <v>128.62</v>
@@ -5534,7 +5526,7 @@
         <v>250.66</v>
       </c>
       <c r="PR3" t="n">
-        <v>103.97</v>
+        <v>100.86</v>
       </c>
       <c r="PS3" t="n">
         <v>115.52</v>
@@ -5576,7 +5568,7 @@
         <v>355.09</v>
       </c>
       <c r="QF3" t="n">
-        <v>167.48</v>
+        <v>165.46</v>
       </c>
       <c r="QG3" t="n">
         <v>269</v>
@@ -5653,8 +5645,2847 @@
       <c r="RE3" s="2" t="n">
         <v>45702</v>
       </c>
-      <c r="RF3" s="2" t="n">
-        <v>45702</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>66.17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>192.64</v>
+      </c>
+      <c r="E4" t="n">
+        <v>387.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>459.68</v>
+      </c>
+      <c r="G4" t="n">
+        <v>112.96</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="I4" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>134.56</v>
+      </c>
+      <c r="K4" t="n">
+        <v>315.89</v>
+      </c>
+      <c r="L4" t="n">
+        <v>161.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>99.81</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80.89</v>
+      </c>
+      <c r="O4" t="n">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>205.71</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>133.38</v>
+      </c>
+      <c r="R4" t="n">
+        <v>61.24</v>
+      </c>
+      <c r="S4" t="n">
+        <v>187.77</v>
+      </c>
+      <c r="T4" t="n">
+        <v>184.98</v>
+      </c>
+      <c r="U4" t="n">
+        <v>53.21</v>
+      </c>
+      <c r="V4" t="n">
+        <v>228.35</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="X4" t="n">
+        <v>97.87</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>310.98</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>74.23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>189.24</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>125.67</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>545.49</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>183.38</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>290.94</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>68.78</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>214.04</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>338.46</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>386.65</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>169.11</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>106.64</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>321.22</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>146.49</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>302.04</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>307.86</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3458.41</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>218.04</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>181.43</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>683.33</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>46.32</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>46.89</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>479.04</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>91.01000000000001</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>137.04</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>973.54</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>164.67</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>184.24</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>5036.4</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>105.96</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>53.83</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>232.74</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>240.47</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>70.38</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>294.83</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>118.84</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>38.51</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>202.18</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>126.04</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>65.14</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>63.39</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>352.9</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>202.22</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>143.84</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>188.92</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>242.2</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>82.36</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>151.84</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>359.92</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>57</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>104.91</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>291.62</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>136.97</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>203.83</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>245.22</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>68.73</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>68.78</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>90.59</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>35.32</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>96.12</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>59.27</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>375.11</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>63.78</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>73.95999999999999</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>1070.14</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>450.94</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>87.88</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>373.46</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>206.05</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>191.19</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>157.33</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>479.57</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>114.36</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>65.34</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>34.58</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>156.69</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>163.78</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>195.76</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>72.45</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>419.84</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>202.22</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>38.61</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>111.47</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>83.14</v>
+      </c>
+      <c r="ET4" t="n">
+        <v>101.01</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>308.82</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>69.81</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>264.58</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>76.11</v>
+      </c>
+      <c r="EZ4" t="n">
+        <v>129.14</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>389.63</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>63.86</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>266.39</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>53.37</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>249.27</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>934.23</v>
+      </c>
+      <c r="FJ4" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="FK4" t="n">
+        <v>287.57</v>
+      </c>
+      <c r="FL4" t="n">
+        <v>68.56</v>
+      </c>
+      <c r="FM4" t="n">
+        <v>332.52</v>
+      </c>
+      <c r="FN4" t="n">
+        <v>66.56999999999999</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>61.45</v>
+      </c>
+      <c r="FP4" t="n">
+        <v>42.76</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>202.05</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>154.68</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>108.08</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>309.46</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>455.05</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>74.72</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>105.07</v>
+      </c>
+      <c r="FX4" t="n">
+        <v>267.45</v>
+      </c>
+      <c r="FY4" t="n">
+        <v>68.94</v>
+      </c>
+      <c r="FZ4" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="GA4" t="n">
+        <v>159.39</v>
+      </c>
+      <c r="GB4" t="n">
+        <v>39.93</v>
+      </c>
+      <c r="GC4" t="n">
+        <v>230.67</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="GE4" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>111.69</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>80.56</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>55.52</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="GJ4" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="GK4" t="n">
+        <v>212.59</v>
+      </c>
+      <c r="GL4" t="n">
+        <v>513.78</v>
+      </c>
+      <c r="GM4" t="n">
+        <v>207.91</v>
+      </c>
+      <c r="GN4" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="GO4" t="n">
+        <v>146.58</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>48.29</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>124.53</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>105.41</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>121.76</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>182.22</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>659.63</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>111.76</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>60.83</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>315.74</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>75.95999999999999</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>157.87</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>146.37</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>265.6</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>63.08</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>409.06</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>202.35</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>133.24</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>253.99</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>161.34</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>260.75</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>194.75</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>445</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>258.09</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>85.56</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>280.59</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>166.77</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>586.3</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>594.63</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="II4" t="n">
+        <v>193.34</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>95.31999999999999</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>169.77</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>166.41</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>128.75</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>89.54000000000001</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>276.26</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>183.47</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>132.56</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>748.97</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>65.04000000000001</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>197.12</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>246.58</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>82.64</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>58.51</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>132.11</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>123.61</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>842.79</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>39.04</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>422.45</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>366.82</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>76.52</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>198.6</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>155.67</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>193.44</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>283.01</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>228.32</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>527.2</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>564.3099999999999</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>34.68</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>76.84</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>308.33</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>593.08</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>82.89</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>736.5599999999999</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1271.04</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>99.39</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>407.9</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>156.61</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>33</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>121.07</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>272.18</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>60.74</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>682.33</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>49.16</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>523.23</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>138.74</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>437.63</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>571.45</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>118.79</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>1056.3</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>67.97</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>39.61</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>216.56</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>255.61</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>438.85</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>107.49</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>137.36</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>138.56</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>7362.05</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1319.25</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>47.99</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>206.19</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>82.06999999999999</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>51.76</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>97.72</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>96.64</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>105.84</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>212.31</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>118.72</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>699.47</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>147</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>209.03</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>77.89</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>96.64</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>143.26</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>89.27</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>193.79</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>343.49</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>117.72</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>162.84</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>262.32</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>120.86</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>111.54</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>83.58</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>171.25</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>296.76</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>107.27</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>284.62</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>172</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>168.44</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>282.63</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>159.56</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>122.52</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>673.1799999999999</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>231.24</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>232.92</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>112.32</v>
+      </c>
+      <c r="NN4" t="n">
+        <v>293.74</v>
+      </c>
+      <c r="NO4" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="NP4" t="n">
+        <v>573.02</v>
+      </c>
+      <c r="NQ4" t="n">
+        <v>138.62</v>
+      </c>
+      <c r="NR4" t="n">
+        <v>263.04</v>
+      </c>
+      <c r="NS4" t="n">
+        <v>539.05</v>
+      </c>
+      <c r="NT4" t="n">
+        <v>326.08</v>
+      </c>
+      <c r="NU4" t="n">
+        <v>205.51</v>
+      </c>
+      <c r="NV4" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="NW4" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="NX4" t="n">
+        <v>84.11</v>
+      </c>
+      <c r="NY4" t="n">
+        <v>986.64</v>
+      </c>
+      <c r="NZ4" t="n">
+        <v>356.33</v>
+      </c>
+      <c r="OA4" t="n">
+        <v>184.91</v>
+      </c>
+      <c r="OB4" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="OC4" t="n">
+        <v>102.04</v>
+      </c>
+      <c r="OD4" t="n">
+        <v>338.65</v>
+      </c>
+      <c r="OE4" t="n">
+        <v>85.37</v>
+      </c>
+      <c r="OF4" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="OG4" t="n">
+        <v>112.43</v>
+      </c>
+      <c r="OH4" t="n">
+        <v>98.98</v>
+      </c>
+      <c r="OI4" t="n">
+        <v>136.04</v>
+      </c>
+      <c r="OJ4" t="n">
+        <v>219.09</v>
+      </c>
+      <c r="OK4" t="n">
+        <v>385.06</v>
+      </c>
+      <c r="OL4" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="OM4" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="ON4" t="n">
+        <v>521.45</v>
+      </c>
+      <c r="OO4" t="n">
+        <v>71.09</v>
+      </c>
+      <c r="OP4" t="n">
+        <v>270.87</v>
+      </c>
+      <c r="OQ4" t="n">
+        <v>106.94</v>
+      </c>
+      <c r="OR4" t="n">
+        <v>208.45</v>
+      </c>
+      <c r="OS4" t="n">
+        <v>87.54000000000001</v>
+      </c>
+      <c r="OT4" t="n">
+        <v>205.33</v>
+      </c>
+      <c r="OU4" t="n">
+        <v>127.85</v>
+      </c>
+      <c r="OV4" t="n">
+        <v>152.59</v>
+      </c>
+      <c r="OW4" t="n">
+        <v>489.06</v>
+      </c>
+      <c r="OX4" t="n">
+        <v>167.09</v>
+      </c>
+      <c r="OY4" t="n">
+        <v>113.13</v>
+      </c>
+      <c r="OZ4" t="n">
+        <v>355.43</v>
+      </c>
+      <c r="PA4" t="n">
+        <v>182.62</v>
+      </c>
+      <c r="PB4" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="PC4" t="n">
+        <v>531.24</v>
+      </c>
+      <c r="PD4" t="n">
+        <v>124.19</v>
+      </c>
+      <c r="PE4" t="n">
+        <v>57.15</v>
+      </c>
+      <c r="PF4" t="n">
+        <v>363.48</v>
+      </c>
+      <c r="PG4" t="n">
+        <v>1311.19</v>
+      </c>
+      <c r="PH4" t="n">
+        <v>238.06</v>
+      </c>
+      <c r="PI4" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="PJ4" t="n">
+        <v>46.74</v>
+      </c>
+      <c r="PK4" t="n">
+        <v>641.29</v>
+      </c>
+      <c r="PL4" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="PM4" t="n">
+        <v>47.68</v>
+      </c>
+      <c r="PN4" t="n">
+        <v>79.31999999999999</v>
+      </c>
+      <c r="PO4" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="PP4" t="n">
+        <v>365.35</v>
+      </c>
+      <c r="PQ4" t="n">
+        <v>249.02</v>
+      </c>
+      <c r="PR4" t="n">
+        <v>103.97</v>
+      </c>
+      <c r="PS4" t="n">
+        <v>115.97</v>
+      </c>
+      <c r="PT4" t="n">
+        <v>740.09</v>
+      </c>
+      <c r="PU4" t="n">
+        <v>522.83</v>
+      </c>
+      <c r="PV4" t="n">
+        <v>181.52</v>
+      </c>
+      <c r="PW4" t="n">
+        <v>135.09</v>
+      </c>
+      <c r="PX4" t="n">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="PY4" t="n">
+        <v>229.01</v>
+      </c>
+      <c r="PZ4" t="n">
+        <v>293.72</v>
+      </c>
+      <c r="QA4" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="QB4" t="n">
+        <v>458.42</v>
+      </c>
+      <c r="QC4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="QD4" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="QE4" t="n">
+        <v>353.35</v>
+      </c>
+      <c r="QF4" t="n">
+        <v>167.48</v>
+      </c>
+      <c r="QG4" t="n">
+        <v>269.79</v>
+      </c>
+      <c r="QH4" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="QI4" t="n">
+        <v>1026.61</v>
+      </c>
+      <c r="QJ4" t="n">
+        <v>187.84</v>
+      </c>
+      <c r="QK4" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="QL4" t="n">
+        <v>103.88</v>
+      </c>
+      <c r="QM4" t="n">
+        <v>110.23</v>
+      </c>
+      <c r="QN4" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="QO4" t="n">
+        <v>369.79</v>
+      </c>
+      <c r="QP4" t="n">
+        <v>102.95</v>
+      </c>
+      <c r="QQ4" t="n">
+        <v>79.84999999999999</v>
+      </c>
+      <c r="QR4" t="n">
+        <v>149.65</v>
+      </c>
+      <c r="QS4" t="n">
+        <v>214.52</v>
+      </c>
+      <c r="QT4" t="n">
+        <v>68.31</v>
+      </c>
+      <c r="QU4" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="QV4" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="QW4" t="n">
+        <v>320.07</v>
+      </c>
+      <c r="QX4" t="n">
+        <v>88.72</v>
+      </c>
+      <c r="QY4" t="n">
+        <v>68.43000000000001</v>
+      </c>
+      <c r="QZ4" t="n">
+        <v>129.42</v>
+      </c>
+      <c r="RA4" t="n">
+        <v>147.78</v>
+      </c>
+      <c r="RB4" t="n">
+        <v>317.63</v>
+      </c>
+      <c r="RC4" t="n">
+        <v>100.34</v>
+      </c>
+      <c r="RD4" t="n">
+        <v>156.61</v>
+      </c>
+      <c r="RE4" s="2" t="n">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>148.87</v>
+      </c>
+      <c r="B5" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>130.62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>196.46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>386.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>462.47</v>
+      </c>
+      <c r="G5" t="n">
+        <v>113.74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>134.93</v>
+      </c>
+      <c r="K5" t="n">
+        <v>316.36</v>
+      </c>
+      <c r="L5" t="n">
+        <v>160.35</v>
+      </c>
+      <c r="M5" t="n">
+        <v>98.48999999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>201.86</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>126.62</v>
+      </c>
+      <c r="R5" t="n">
+        <v>61.66</v>
+      </c>
+      <c r="S5" t="n">
+        <v>188.59</v>
+      </c>
+      <c r="T5" t="n">
+        <v>183.03</v>
+      </c>
+      <c r="U5" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="V5" t="n">
+        <v>224.52</v>
+      </c>
+      <c r="W5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>98.06</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>101.74</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>311.27</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>189.66</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>126.43</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>542.4400000000001</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>291.91</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>219.66</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>337.65</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>389.72</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>244.12</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>172.4</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>88.04000000000001</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>45.71</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>110.97</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>324.82</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>147.97</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>293.92</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>308.87</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3383.09</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>216.72</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>182.79</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>46.95</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>224.66</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>480.74</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>91.01000000000001</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>65.06999999999999</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>136.95</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>966.66</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>165.83</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>89.03</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>185.53</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>5127.22</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>105.27</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>228.24</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>238.47</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>69.53</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>70.83</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>298.56</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>201.98</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>125.66</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>89.15000000000001</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>66.58</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>353.97</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>205</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>143.91</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>191.83</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>69.54000000000001</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>239.84</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>33.68</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>83.03</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>81.13</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>361.17</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>156.52</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>54.48</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>265.74</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>103.64</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>295.1</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>136.11</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>202.85</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>84.48999999999999</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>46.85</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>147.97</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>247.2</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>97.13</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>95.56</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>169.34</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>382.85</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>64.27</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>1051.82</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>448.93</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>89.42</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>376.85</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>66.03</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>204.8</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>154.72</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>499.44</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>119.89</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>35.09</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>90.55</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>157.72</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>165.77</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>196.02</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>74.91</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>55.42</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>420.37</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>204.9</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>129.46</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>110.45</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="ET5" t="n">
+        <v>103.01</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>312.9</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>69.45</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>264.8</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="EZ5" t="n">
+        <v>128.29</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>379.7</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>124.71</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>87.43000000000001</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>262.25</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>245.87</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>929.3</v>
+      </c>
+      <c r="FJ5" t="n">
+        <v>70.92</v>
+      </c>
+      <c r="FK5" t="n">
+        <v>289.88</v>
+      </c>
+      <c r="FL5" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="FM5" t="n">
+        <v>338.02</v>
+      </c>
+      <c r="FN5" t="n">
+        <v>66.81999999999999</v>
+      </c>
+      <c r="FO5" t="n">
+        <v>60.86</v>
+      </c>
+      <c r="FP5" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="FQ5" t="n">
+        <v>203.28</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>154.84</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>110.48</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>307.22</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>457.93</v>
+      </c>
+      <c r="FV5" t="n">
+        <v>74.55</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>104.01</v>
+      </c>
+      <c r="FX5" t="n">
+        <v>267.08</v>
+      </c>
+      <c r="FY5" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="FZ5" t="n">
+        <v>44.36</v>
+      </c>
+      <c r="GA5" t="n">
+        <v>162.85</v>
+      </c>
+      <c r="GB5" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="GC5" t="n">
+        <v>236.15</v>
+      </c>
+      <c r="GD5" t="n">
+        <v>37.91</v>
+      </c>
+      <c r="GE5" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>113.09</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>81.65000000000001</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>55.86</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="GJ5" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="GK5" t="n">
+        <v>212.81</v>
+      </c>
+      <c r="GL5" t="n">
+        <v>510.85</v>
+      </c>
+      <c r="GM5" t="n">
+        <v>209.77</v>
+      </c>
+      <c r="GN5" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="GO5" t="n">
+        <v>142.67</v>
+      </c>
+      <c r="GP5" t="n">
+        <v>241.81</v>
+      </c>
+      <c r="GQ5" t="n">
+        <v>57.27</v>
+      </c>
+      <c r="GR5" t="n">
+        <v>48.11</v>
+      </c>
+      <c r="GS5" t="n">
+        <v>121.43</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>106.61</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>123.47</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>180.91</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>667.37</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>112.73</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>60.59</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>316.81</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>76.86</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>161.94</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>148.17</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>268.12</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>64.13</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>401.28</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>207.56</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>136.44</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>253.7</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>169.59</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>263.02</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>195.81</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>447.52</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>260.89</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>70.95999999999999</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>86.04000000000001</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>281.42</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>165.56</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>85.81</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>576</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>598.8200000000001</v>
+      </c>
+      <c r="IG5" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="IH5" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="II5" t="n">
+        <v>193.53</v>
+      </c>
+      <c r="IJ5" t="n">
+        <v>93.04000000000001</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>172.95</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>167.85</v>
+      </c>
+      <c r="IM5" t="n">
+        <v>129.96</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="IO5" t="n">
+        <v>90.45</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>279.01</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>183.73</v>
+      </c>
+      <c r="IU5" t="n">
+        <v>135.06</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>758.01</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>195.15</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>246.91</v>
+      </c>
+      <c r="JC5" t="n">
+        <v>86.51000000000001</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>57.51</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>130.63</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>121.65</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>856.13</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>153.88</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>39.44</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>428.21</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>249.94</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>370.73</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>78.16</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>199.96</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>159.41</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>287.81</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>229.77</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>532.1900000000001</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>565.33</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="JZ5" t="n">
+        <v>303.93</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>596.12</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>86.33</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>82.78</v>
+      </c>
+      <c r="KD5" t="n">
+        <v>707.72</v>
+      </c>
+      <c r="KE5" t="n">
+        <v>82.06999999999999</v>
+      </c>
+      <c r="KF5" t="n">
+        <v>1272.13</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>37.96</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>58.08</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>107.45</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>407.15</v>
+      </c>
+      <c r="KK5" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="KL5" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="KM5" t="n">
+        <v>119.09</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>268.13</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>60.38</v>
+      </c>
+      <c r="KP5" t="n">
+        <v>61</v>
+      </c>
+      <c r="KQ5" t="n">
+        <v>696</v>
+      </c>
+      <c r="KR5" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>515.5599999999999</v>
+      </c>
+      <c r="KT5" t="n">
+        <v>140.09</v>
+      </c>
+      <c r="KU5" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="KV5" t="n">
+        <v>423.92</v>
+      </c>
+      <c r="KW5" t="n">
+        <v>568.97</v>
+      </c>
+      <c r="KX5" t="n">
+        <v>80.84999999999999</v>
+      </c>
+      <c r="KY5" t="n">
+        <v>120.23</v>
+      </c>
+      <c r="KZ5" t="n">
+        <v>1025.18</v>
+      </c>
+      <c r="LA5" t="n">
+        <v>47.45</v>
+      </c>
+      <c r="LB5" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="LC5" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="LD5" t="n">
+        <v>76.98</v>
+      </c>
+      <c r="LE5" t="n">
+        <v>39.79</v>
+      </c>
+      <c r="LF5" t="n">
+        <v>218.37</v>
+      </c>
+      <c r="LG5" t="n">
+        <v>257.22</v>
+      </c>
+      <c r="LH5" t="n">
+        <v>114.02</v>
+      </c>
+      <c r="LI5" t="n">
+        <v>441.49</v>
+      </c>
+      <c r="LJ5" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="LK5" t="n">
+        <v>111.72</v>
+      </c>
+      <c r="LL5" t="n">
+        <v>141.62</v>
+      </c>
+      <c r="LM5" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="LN5" t="n">
+        <v>7238.93</v>
+      </c>
+      <c r="LO5" t="n">
+        <v>230.48</v>
+      </c>
+      <c r="LP5" t="n">
+        <v>1295.72</v>
+      </c>
+      <c r="LQ5" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="LR5" t="n">
+        <v>207.33</v>
+      </c>
+      <c r="LS5" t="n">
+        <v>82.91</v>
+      </c>
+      <c r="LT5" t="n">
+        <v>52.28</v>
+      </c>
+      <c r="LU5" t="n">
+        <v>98.79000000000001</v>
+      </c>
+      <c r="LV5" t="n">
+        <v>178.23</v>
+      </c>
+      <c r="LW5" t="n">
+        <v>97.06999999999999</v>
+      </c>
+      <c r="LX5" t="n">
+        <v>105.84</v>
+      </c>
+      <c r="LY5" t="n">
+        <v>211.92</v>
+      </c>
+      <c r="LZ5" t="n">
+        <v>124.17</v>
+      </c>
+      <c r="MA5" t="n">
+        <v>206.01</v>
+      </c>
+      <c r="MB5" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="MC5" t="n">
+        <v>697.3200000000001</v>
+      </c>
+      <c r="MD5" t="n">
+        <v>148.29</v>
+      </c>
+      <c r="ME5" t="n">
+        <v>211.35</v>
+      </c>
+      <c r="MF5" t="n">
+        <v>78.23</v>
+      </c>
+      <c r="MG5" t="n">
+        <v>96.09</v>
+      </c>
+      <c r="MH5" t="n">
+        <v>143.32</v>
+      </c>
+      <c r="MI5" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="MJ5" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="MK5" t="n">
+        <v>148.55</v>
+      </c>
+      <c r="ML5" t="n">
+        <v>130.63</v>
+      </c>
+      <c r="MM5" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="MN5" t="n">
+        <v>196.33</v>
+      </c>
+      <c r="MO5" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="MP5" t="n">
+        <v>118.47</v>
+      </c>
+      <c r="MQ5" t="n">
+        <v>33.96</v>
+      </c>
+      <c r="MR5" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="MS5" t="n">
+        <v>164.92</v>
+      </c>
+      <c r="MT5" t="n">
+        <v>264.02</v>
+      </c>
+      <c r="MU5" t="n">
+        <v>120.75</v>
+      </c>
+      <c r="MV5" t="n">
+        <v>111.54</v>
+      </c>
+      <c r="MW5" t="n">
+        <v>84.84</v>
+      </c>
+      <c r="MX5" t="n">
+        <v>170.17</v>
+      </c>
+      <c r="MY5" t="n">
+        <v>296.29</v>
+      </c>
+      <c r="MZ5" t="n">
+        <v>105.38</v>
+      </c>
+      <c r="NA5" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="NB5" t="n">
+        <v>283.56</v>
+      </c>
+      <c r="NC5" t="n">
+        <v>173.39</v>
+      </c>
+      <c r="ND5" t="n">
+        <v>169.46</v>
+      </c>
+      <c r="NE5" t="n">
+        <v>285.42</v>
+      </c>
+      <c r="NF5" t="n">
+        <v>159.77</v>
+      </c>
+      <c r="NG5" t="n">
+        <v>123.87</v>
+      </c>
+      <c r="NH5" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="NI5" t="n">
+        <v>678.46</v>
+      </c>
+      <c r="NJ5" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="NK5" t="n">
+        <v>227.69</v>
+      </c>
+      <c r="NL5" t="n">
+        <v>230.24</v>
+      </c>
+      <c r="NM5" t="n">
+        <v>111.34</v>
+      </c>
+      <c r="NN5" t="n">
+        <v>299.34</v>
+      </c>
+      <c r="NO5" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="NP5" t="n">
+        <v>572.88</v>
+      </c>
+      <c r="NQ5" t="n">
+        <v>138.37</v>
+      </c>
+      <c r="NR5" t="n">
+        <v>259.52</v>
+      </c>
+      <c r="NS5" t="n">
+        <v>540.25</v>
+      </c>
+      <c r="NT5" t="n">
+        <v>327.39</v>
+      </c>
+      <c r="NU5" t="n">
+        <v>205.23</v>
+      </c>
+      <c r="NV5" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="NW5" t="n">
+        <v>102.68</v>
+      </c>
+      <c r="NX5" t="n">
+        <v>84.37</v>
+      </c>
+      <c r="NY5" t="n">
+        <v>987.97</v>
+      </c>
+      <c r="NZ5" t="n">
+        <v>351.45</v>
+      </c>
+      <c r="OA5" t="n">
+        <v>185.97</v>
+      </c>
+      <c r="OB5" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="OC5" t="n">
+        <v>100.49</v>
+      </c>
+      <c r="OD5" t="n">
+        <v>340.73</v>
+      </c>
+      <c r="OE5" t="n">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="OF5" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="OG5" t="n">
+        <v>112.85</v>
+      </c>
+      <c r="OH5" t="n">
+        <v>100.78</v>
+      </c>
+      <c r="OI5" t="n">
+        <v>137.78</v>
+      </c>
+      <c r="OJ5" t="n">
+        <v>219.56</v>
+      </c>
+      <c r="OK5" t="n">
+        <v>383.79</v>
+      </c>
+      <c r="OL5" t="n">
+        <v>55.27</v>
+      </c>
+      <c r="OM5" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="ON5" t="n">
+        <v>523.26</v>
+      </c>
+      <c r="OO5" t="n">
+        <v>70</v>
+      </c>
+      <c r="OP5" t="n">
+        <v>264.05</v>
+      </c>
+      <c r="OQ5" t="n">
+        <v>107.27</v>
+      </c>
+      <c r="OR5" t="n">
+        <v>214.46</v>
+      </c>
+      <c r="OS5" t="n">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="OT5" t="n">
+        <v>209.56</v>
+      </c>
+      <c r="OU5" t="n">
+        <v>129.87</v>
+      </c>
+      <c r="OV5" t="n">
+        <v>154.32</v>
+      </c>
+      <c r="OW5" t="n">
+        <v>494.67</v>
+      </c>
+      <c r="OX5" t="n">
+        <v>169.53</v>
+      </c>
+      <c r="OY5" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="OZ5" t="n">
+        <v>352.69</v>
+      </c>
+      <c r="PA5" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="PB5" t="n">
+        <v>72.20999999999999</v>
+      </c>
+      <c r="PC5" t="n">
+        <v>523.27</v>
+      </c>
+      <c r="PD5" t="n">
+        <v>123.44</v>
+      </c>
+      <c r="PE5" t="n">
+        <v>57.34</v>
+      </c>
+      <c r="PF5" t="n">
+        <v>362.04</v>
+      </c>
+      <c r="PG5" t="n">
+        <v>1293.71</v>
+      </c>
+      <c r="PH5" t="n">
+        <v>238.05</v>
+      </c>
+      <c r="PI5" t="n">
+        <v>74.77</v>
+      </c>
+      <c r="PJ5" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="PK5" t="n">
+        <v>636.88</v>
+      </c>
+      <c r="PL5" t="n">
+        <v>57.38</v>
+      </c>
+      <c r="PM5" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="PN5" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="PO5" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="PP5" t="n">
+        <v>368.91</v>
+      </c>
+      <c r="PQ5" t="n">
+        <v>250.95</v>
+      </c>
+      <c r="PR5" t="n">
+        <v>102.73</v>
+      </c>
+      <c r="PS5" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="PT5" t="n">
+        <v>720.55</v>
+      </c>
+      <c r="PU5" t="n">
+        <v>499.36</v>
+      </c>
+      <c r="PV5" t="n">
+        <v>182.92</v>
+      </c>
+      <c r="PW5" t="n">
+        <v>138.58</v>
+      </c>
+      <c r="PX5" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="PY5" t="n">
+        <v>230.35</v>
+      </c>
+      <c r="PZ5" t="n">
+        <v>292.75</v>
+      </c>
+      <c r="QA5" t="n">
+        <v>41.06</v>
+      </c>
+      <c r="QB5" t="n">
+        <v>459.07</v>
+      </c>
+      <c r="QC5" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="QD5" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="QE5" t="n">
+        <v>354.54</v>
+      </c>
+      <c r="QF5" t="n">
+        <v>169.16</v>
+      </c>
+      <c r="QG5" t="n">
+        <v>272.94</v>
+      </c>
+      <c r="QH5" t="n">
+        <v>60.41</v>
+      </c>
+      <c r="QI5" t="n">
+        <v>1019.97</v>
+      </c>
+      <c r="QJ5" t="n">
+        <v>187.36</v>
+      </c>
+      <c r="QK5" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="QL5" t="n">
+        <v>103.21</v>
+      </c>
+      <c r="QM5" t="n">
+        <v>109.17</v>
+      </c>
+      <c r="QN5" t="n">
+        <v>228.56</v>
+      </c>
+      <c r="QO5" t="n">
+        <v>375.85</v>
+      </c>
+      <c r="QP5" t="n">
+        <v>103.13</v>
+      </c>
+      <c r="QQ5" t="n">
+        <v>80.76000000000001</v>
+      </c>
+      <c r="QR5" t="n">
+        <v>150.04</v>
+      </c>
+      <c r="QS5" t="n">
+        <v>208.46</v>
+      </c>
+      <c r="QT5" t="n">
+        <v>71.42</v>
+      </c>
+      <c r="QU5" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="QV5" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="QW5" t="n">
+        <v>320.73</v>
+      </c>
+      <c r="QX5" t="n">
+        <v>91.92</v>
+      </c>
+      <c r="QY5" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="QZ5" t="n">
+        <v>130.41</v>
+      </c>
+      <c r="RA5" t="n">
+        <v>146.87</v>
+      </c>
+      <c r="RB5" t="n">
+        <v>328.9</v>
+      </c>
+      <c r="RC5" t="n">
+        <v>102.13</v>
+      </c>
+      <c r="RD5" t="n">
+        <v>156.15</v>
+      </c>
+      <c r="RE5" s="2" t="n">
+        <v>45706</v>
       </c>
     </row>
   </sheetData>

--- a/streamlit/stock_real_data.xlsx
+++ b/streamlit/stock_real_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RE5"/>
+  <dimension ref="A1:RE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3055,7 +3055,7 @@
         <v>63.49</v>
       </c>
       <c r="CF2" t="n">
-        <v>62.92</v>
+        <v>63.13</v>
       </c>
       <c r="CG2" t="n">
         <v>351.65</v>
@@ -3235,7 +3235,7 @@
         <v>55.84</v>
       </c>
       <c r="EN2" t="n">
-        <v>432.19</v>
+        <v>431.54</v>
       </c>
       <c r="EO2" t="n">
         <v>200.93</v>
@@ -3631,7 +3631,7 @@
         <v>197.63</v>
       </c>
       <c r="JP2" t="n">
-        <v>28.93</v>
+        <v>28.54</v>
       </c>
       <c r="JQ2" t="n">
         <v>148.99</v>
@@ -4476,7 +4476,7 @@
         <v>63.58</v>
       </c>
       <c r="CF3" t="n">
-        <v>62.98</v>
+        <v>62.92</v>
       </c>
       <c r="CG3" t="n">
         <v>353.44</v>
@@ -4656,7 +4656,7 @@
         <v>56.62</v>
       </c>
       <c r="EN3" t="n">
-        <v>428.58</v>
+        <v>432.19</v>
       </c>
       <c r="EO3" t="n">
         <v>202.53</v>
@@ -5052,7 +5052,7 @@
         <v>197.24</v>
       </c>
       <c r="JP3" t="n">
-        <v>28.71</v>
+        <v>28.93</v>
       </c>
       <c r="JQ3" t="n">
         <v>153.62</v>
@@ -5897,7 +5897,7 @@
         <v>65.14</v>
       </c>
       <c r="CF4" t="n">
-        <v>63.39</v>
+        <v>62.98</v>
       </c>
       <c r="CG4" t="n">
         <v>352.9</v>
@@ -6077,7 +6077,7 @@
         <v>55.51</v>
       </c>
       <c r="EN4" t="n">
-        <v>419.84</v>
+        <v>428.58</v>
       </c>
       <c r="EO4" t="n">
         <v>202.22</v>
@@ -6473,7 +6473,7 @@
         <v>198.6</v>
       </c>
       <c r="JP4" t="n">
-        <v>28.86</v>
+        <v>28.71</v>
       </c>
       <c r="JQ4" t="n">
         <v>155.67</v>
@@ -7069,1423 +7069,2844 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>148.87</v>
+        <v>148.94</v>
       </c>
       <c r="B5" t="n">
-        <v>65.56</v>
+        <v>65.61</v>
       </c>
       <c r="C5" t="n">
-        <v>130.62</v>
+        <v>130.04</v>
       </c>
       <c r="D5" t="n">
-        <v>196.46</v>
+        <v>196.06</v>
       </c>
       <c r="E5" t="n">
-        <v>386.48</v>
+        <v>387.16</v>
       </c>
       <c r="F5" t="n">
-        <v>462.47</v>
+        <v>463.45</v>
       </c>
       <c r="G5" t="n">
-        <v>113.74</v>
+        <v>114.12</v>
       </c>
       <c r="H5" t="n">
-        <v>10.23</v>
+        <v>10.25</v>
       </c>
       <c r="I5" t="n">
-        <v>104.1</v>
+        <v>104.15</v>
       </c>
       <c r="J5" t="n">
-        <v>134.93</v>
+        <v>135.03</v>
       </c>
       <c r="K5" t="n">
-        <v>316.36</v>
+        <v>316.78</v>
       </c>
       <c r="L5" t="n">
-        <v>160.35</v>
+        <v>160.37</v>
       </c>
       <c r="M5" t="n">
-        <v>98.48999999999999</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>82.95999999999999</v>
+        <v>83.56</v>
       </c>
       <c r="O5" t="n">
-        <v>95.7</v>
+        <v>95.69</v>
       </c>
       <c r="P5" t="n">
         <v>201.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>126.62</v>
+        <v>125.54</v>
       </c>
       <c r="R5" t="n">
         <v>61.66</v>
       </c>
       <c r="S5" t="n">
-        <v>188.59</v>
+        <v>188.82</v>
       </c>
       <c r="T5" t="n">
-        <v>183.03</v>
+        <v>183.5</v>
       </c>
       <c r="U5" t="n">
-        <v>52.64</v>
+        <v>52.68</v>
       </c>
       <c r="V5" t="n">
-        <v>224.52</v>
+        <v>226.36</v>
       </c>
       <c r="W5" t="n">
-        <v>10.1</v>
+        <v>10.13</v>
       </c>
       <c r="X5" t="n">
-        <v>98.06</v>
+        <v>98.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.74</v>
+        <v>102.09</v>
       </c>
       <c r="Z5" t="n">
-        <v>311.27</v>
+        <v>312.51</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.5</v>
+        <v>75.36</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.66</v>
+        <v>189.78</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.43</v>
+        <v>127.21</v>
       </c>
       <c r="AD5" t="n">
-        <v>542.4400000000001</v>
+        <v>547.33</v>
       </c>
       <c r="AE5" t="n">
-        <v>184.1</v>
+        <v>184.27</v>
       </c>
       <c r="AF5" t="n">
-        <v>291.91</v>
+        <v>292.58</v>
       </c>
       <c r="AG5" t="n">
-        <v>68.69</v>
+        <v>68.94</v>
       </c>
       <c r="AH5" t="n">
-        <v>219.66</v>
+        <v>219.87</v>
       </c>
       <c r="AI5" t="n">
-        <v>337.65</v>
+        <v>338.76</v>
       </c>
       <c r="AJ5" t="n">
-        <v>389.72</v>
+        <v>390.56</v>
       </c>
       <c r="AK5" t="n">
-        <v>23.64</v>
+        <v>23.53</v>
       </c>
       <c r="AL5" t="n">
         <v>244.12</v>
       </c>
       <c r="AM5" t="n">
-        <v>172.4</v>
+        <v>171.73</v>
       </c>
       <c r="AN5" t="n">
-        <v>66.7</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="AO5" t="n">
-        <v>88.04000000000001</v>
+        <v>88.19</v>
       </c>
       <c r="AP5" t="n">
-        <v>45.71</v>
+        <v>45.85</v>
       </c>
       <c r="AQ5" t="n">
         <v>110.97</v>
       </c>
       <c r="AR5" t="n">
-        <v>324.82</v>
+        <v>326.04</v>
       </c>
       <c r="AS5" t="n">
-        <v>26.03</v>
+        <v>26.02</v>
       </c>
       <c r="AT5" t="n">
-        <v>147.97</v>
+        <v>147.9</v>
       </c>
       <c r="AU5" t="n">
-        <v>293.92</v>
+        <v>295.24</v>
       </c>
       <c r="AV5" t="n">
-        <v>308.87</v>
+        <v>309.57</v>
       </c>
       <c r="AW5" t="n">
-        <v>3383.09</v>
+        <v>3383.6</v>
       </c>
       <c r="AX5" t="n">
-        <v>216.72</v>
+        <v>217.6</v>
       </c>
       <c r="AY5" t="n">
-        <v>182.79</v>
+        <v>183.65</v>
       </c>
       <c r="AZ5" t="n">
-        <v>709.59</v>
+        <v>709.63</v>
       </c>
       <c r="BA5" t="n">
-        <v>46.95</v>
+        <v>46.91</v>
       </c>
       <c r="BB5" t="n">
-        <v>49.87</v>
+        <v>49.75</v>
       </c>
       <c r="BC5" t="n">
-        <v>46.39</v>
+        <v>46.47</v>
       </c>
       <c r="BD5" t="n">
-        <v>31.11</v>
+        <v>31.14</v>
       </c>
       <c r="BE5" t="n">
-        <v>224.66</v>
+        <v>224.68</v>
       </c>
       <c r="BF5" t="n">
-        <v>480.74</v>
+        <v>482.25</v>
       </c>
       <c r="BG5" t="n">
-        <v>91.01000000000001</v>
+        <v>90.92</v>
       </c>
       <c r="BH5" t="n">
-        <v>65.06999999999999</v>
+        <v>65.28</v>
       </c>
       <c r="BI5" t="n">
-        <v>136.95</v>
+        <v>136.41</v>
       </c>
       <c r="BJ5" t="n">
-        <v>966.66</v>
+        <v>976.17</v>
       </c>
       <c r="BK5" t="n">
-        <v>165.83</v>
+        <v>166.56</v>
       </c>
       <c r="BL5" t="n">
-        <v>89.03</v>
+        <v>88.81</v>
       </c>
       <c r="BM5" t="n">
-        <v>185.53</v>
+        <v>184.78</v>
       </c>
       <c r="BN5" t="n">
-        <v>5127.22</v>
+        <v>5140.69</v>
       </c>
       <c r="BO5" t="n">
-        <v>30.19</v>
+        <v>30.2</v>
       </c>
       <c r="BP5" t="n">
-        <v>105.27</v>
+        <v>105.26</v>
       </c>
       <c r="BQ5" t="n">
-        <v>54.38</v>
+        <v>54.36</v>
       </c>
       <c r="BR5" t="n">
         <v>228.24</v>
       </c>
       <c r="BS5" t="n">
-        <v>238.47</v>
+        <v>239.16</v>
       </c>
       <c r="BT5" t="n">
-        <v>69.53</v>
+        <v>69.67</v>
       </c>
       <c r="BU5" t="n">
-        <v>70.83</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="BV5" t="n">
-        <v>99.5</v>
+        <v>99.63</v>
       </c>
       <c r="BW5" t="n">
-        <v>298.56</v>
+        <v>300.05</v>
       </c>
       <c r="BX5" t="n">
-        <v>39.27</v>
+        <v>39.47</v>
       </c>
       <c r="BY5" t="n">
-        <v>119.2</v>
+        <v>119.3</v>
       </c>
       <c r="BZ5" t="n">
-        <v>37.98</v>
+        <v>37.99</v>
       </c>
       <c r="CA5" t="n">
-        <v>201.98</v>
+        <v>202.51</v>
       </c>
       <c r="CB5" t="n">
-        <v>125.66</v>
+        <v>126.13</v>
       </c>
       <c r="CC5" t="n">
-        <v>89.15000000000001</v>
+        <v>89.05</v>
       </c>
       <c r="CD5" t="n">
-        <v>25.49</v>
+        <v>25.68</v>
       </c>
       <c r="CE5" t="n">
-        <v>66.58</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="CF5" t="n">
-        <v>63.4</v>
+        <v>63.39</v>
       </c>
       <c r="CG5" t="n">
-        <v>353.97</v>
+        <v>354.87</v>
       </c>
       <c r="CH5" t="n">
-        <v>205</v>
+        <v>206.66</v>
       </c>
       <c r="CI5" t="n">
-        <v>143.91</v>
+        <v>143.74</v>
       </c>
       <c r="CJ5" t="n">
-        <v>191.83</v>
+        <v>192.26</v>
       </c>
       <c r="CK5" t="n">
-        <v>69.54000000000001</v>
+        <v>69.83</v>
       </c>
       <c r="CL5" t="n">
-        <v>239.84</v>
+        <v>241.02</v>
       </c>
       <c r="CM5" t="n">
-        <v>55.97</v>
+        <v>55.85</v>
       </c>
       <c r="CN5" t="n">
-        <v>33.68</v>
+        <v>33.74</v>
       </c>
       <c r="CO5" t="n">
-        <v>83.03</v>
+        <v>83.14</v>
       </c>
       <c r="CP5" t="n">
-        <v>154.25</v>
+        <v>154.31</v>
       </c>
       <c r="CQ5" t="n">
-        <v>81.13</v>
+        <v>81.33</v>
       </c>
       <c r="CR5" t="n">
-        <v>361.17</v>
+        <v>361.27</v>
       </c>
       <c r="CS5" t="n">
+        <v>155.87</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>266.66</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>103.85</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>294.84</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>136.45</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>203.45</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>84.56</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>46.74</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>148.04</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>247.57</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>88.63</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>36.29</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>169.09</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>59.45</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>52.82</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>384.95</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>64.39</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>75.34999999999999</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>1054.59</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>455.2</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>89.20999999999999</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>378.82</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>65.45</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>204.42</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>200.55</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>155.13</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>501.03</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>120.22</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>90.38</v>
+      </c>
+      <c r="EH5" t="n">
         <v>156.52</v>
       </c>
-      <c r="CT5" t="n">
-        <v>54.48</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>265.74</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>103.64</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>295.1</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>136.11</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>202.85</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>64.68000000000001</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>84.48999999999999</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>46.85</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>147.97</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>247.2</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>69.48999999999999</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>88.52</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>36.17</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>97.13</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>95.56</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>169.34</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>59.24</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>52.62</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>382.85</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>64.27</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>1051.82</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>27.96</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>448.93</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>89.42</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>33.55</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>376.85</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>66.03</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>204.8</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>154.72</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>499.44</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>119.89</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>35.09</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>90.55</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>157.72</v>
-      </c>
       <c r="EI5" t="n">
-        <v>165.77</v>
+        <v>165.74</v>
       </c>
       <c r="EJ5" t="n">
-        <v>196.02</v>
+        <v>196.25</v>
       </c>
       <c r="EK5" t="n">
         <v>74.91</v>
       </c>
       <c r="EL5" t="n">
-        <v>73.7</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="EM5" t="n">
-        <v>55.42</v>
+        <v>55.55</v>
       </c>
       <c r="EN5" t="n">
-        <v>420.37</v>
+        <v>419.84</v>
       </c>
       <c r="EO5" t="n">
-        <v>204.9</v>
+        <v>205.44</v>
       </c>
       <c r="EP5" t="n">
-        <v>39.75</v>
+        <v>39.66</v>
       </c>
       <c r="EQ5" t="n">
-        <v>129.46</v>
+        <v>129.69</v>
       </c>
       <c r="ER5" t="n">
-        <v>110.45</v>
+        <v>110.77</v>
       </c>
       <c r="ES5" t="n">
-        <v>84.38</v>
+        <v>84.22</v>
       </c>
       <c r="ET5" t="n">
-        <v>103.01</v>
+        <v>103.43</v>
       </c>
       <c r="EU5" t="n">
-        <v>312.9</v>
+        <v>312.79</v>
       </c>
       <c r="EV5" t="n">
-        <v>69.45</v>
+        <v>69.72</v>
       </c>
       <c r="EW5" t="n">
-        <v>264.8</v>
+        <v>266.08</v>
       </c>
       <c r="EX5" t="n">
-        <v>51.1</v>
+        <v>51.26</v>
       </c>
       <c r="EY5" t="n">
-        <v>75.90000000000001</v>
+        <v>75.59</v>
       </c>
       <c r="EZ5" t="n">
-        <v>128.29</v>
+        <v>128.19</v>
       </c>
       <c r="FA5" t="n">
-        <v>379.7</v>
+        <v>382.13</v>
       </c>
       <c r="FB5" t="n">
-        <v>124.71</v>
+        <v>124.79</v>
       </c>
       <c r="FC5" t="n">
-        <v>66.31</v>
+        <v>65.44</v>
       </c>
       <c r="FD5" t="n">
-        <v>87.43000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="FE5" t="n">
-        <v>131.4</v>
+        <v>130.8</v>
       </c>
       <c r="FF5" t="n">
-        <v>262.25</v>
+        <v>260.88</v>
       </c>
       <c r="FG5" t="n">
-        <v>54.06</v>
+        <v>53.67</v>
       </c>
       <c r="FH5" t="n">
-        <v>245.87</v>
+        <v>246.26</v>
       </c>
       <c r="FI5" t="n">
-        <v>929.3</v>
+        <v>931.98</v>
       </c>
       <c r="FJ5" t="n">
-        <v>70.92</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="FK5" t="n">
-        <v>289.88</v>
+        <v>289.91</v>
       </c>
       <c r="FL5" t="n">
-        <v>71.87</v>
+        <v>72.05</v>
       </c>
       <c r="FM5" t="n">
-        <v>338.02</v>
+        <v>338.45</v>
       </c>
       <c r="FN5" t="n">
-        <v>66.81999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="FO5" t="n">
-        <v>60.86</v>
+        <v>61.43</v>
       </c>
       <c r="FP5" t="n">
-        <v>42.49</v>
+        <v>42.63</v>
       </c>
       <c r="FQ5" t="n">
-        <v>203.28</v>
+        <v>203.97</v>
       </c>
       <c r="FR5" t="n">
-        <v>154.84</v>
+        <v>154.95</v>
       </c>
       <c r="FS5" t="n">
-        <v>110.48</v>
+        <v>109.92</v>
       </c>
       <c r="FT5" t="n">
-        <v>307.22</v>
+        <v>307.6</v>
       </c>
       <c r="FU5" t="n">
-        <v>457.93</v>
+        <v>459.84</v>
       </c>
       <c r="FV5" t="n">
-        <v>74.55</v>
+        <v>74.73</v>
       </c>
       <c r="FW5" t="n">
-        <v>104.01</v>
+        <v>104.58</v>
       </c>
       <c r="FX5" t="n">
-        <v>267.08</v>
+        <v>266.97</v>
       </c>
       <c r="FY5" t="n">
-        <v>68.97</v>
+        <v>69.58</v>
       </c>
       <c r="FZ5" t="n">
-        <v>44.36</v>
+        <v>44.39</v>
       </c>
       <c r="GA5" t="n">
-        <v>162.85</v>
+        <v>162.88</v>
       </c>
       <c r="GB5" t="n">
-        <v>40.43</v>
+        <v>40.57</v>
       </c>
       <c r="GC5" t="n">
-        <v>236.15</v>
+        <v>236.03</v>
       </c>
       <c r="GD5" t="n">
-        <v>37.91</v>
+        <v>37.9</v>
       </c>
       <c r="GE5" t="n">
         <v>9.27</v>
       </c>
       <c r="GF5" t="n">
-        <v>113.09</v>
+        <v>114.11</v>
       </c>
       <c r="GG5" t="n">
-        <v>81.65000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="GH5" t="n">
-        <v>55.86</v>
+        <v>56.21</v>
       </c>
       <c r="GI5" t="n">
-        <v>20.78</v>
+        <v>20.89</v>
       </c>
       <c r="GJ5" t="n">
-        <v>39.19</v>
+        <v>39.24</v>
       </c>
       <c r="GK5" t="n">
-        <v>212.81</v>
+        <v>214.68</v>
       </c>
       <c r="GL5" t="n">
-        <v>510.85</v>
+        <v>513.01</v>
       </c>
       <c r="GM5" t="n">
-        <v>209.77</v>
+        <v>209.72</v>
       </c>
       <c r="GN5" t="n">
-        <v>27.5</v>
+        <v>27.57</v>
       </c>
       <c r="GO5" t="n">
-        <v>142.67</v>
+        <v>143.52</v>
       </c>
       <c r="GP5" t="n">
-        <v>241.81</v>
+        <v>242.2</v>
       </c>
       <c r="GQ5" t="n">
-        <v>57.27</v>
+        <v>57.49</v>
       </c>
       <c r="GR5" t="n">
-        <v>48.11</v>
+        <v>48.06</v>
       </c>
       <c r="GS5" t="n">
-        <v>121.43</v>
+        <v>121.49</v>
       </c>
       <c r="GT5" t="n">
-        <v>105.3</v>
+        <v>105.1</v>
       </c>
       <c r="GU5" t="n">
-        <v>106.61</v>
+        <v>107.04</v>
       </c>
       <c r="GV5" t="n">
-        <v>123.47</v>
+        <v>123.71</v>
       </c>
       <c r="GW5" t="n">
         <v>180.91</v>
       </c>
       <c r="GX5" t="n">
-        <v>667.37</v>
+        <v>671.3</v>
       </c>
       <c r="GY5" t="n">
-        <v>26.8</v>
+        <v>26.68</v>
       </c>
       <c r="GZ5" t="n">
-        <v>112.73</v>
+        <v>112.79</v>
       </c>
       <c r="HA5" t="n">
-        <v>60.59</v>
+        <v>61.07</v>
       </c>
       <c r="HB5" t="n">
-        <v>316.81</v>
+        <v>316.7</v>
       </c>
       <c r="HC5" t="n">
-        <v>19.56</v>
+        <v>19.55</v>
       </c>
       <c r="HD5" t="n">
-        <v>76.86</v>
+        <v>77.67</v>
       </c>
       <c r="HE5" t="n">
-        <v>161.94</v>
+        <v>162.78</v>
       </c>
       <c r="HF5" t="n">
-        <v>148.17</v>
+        <v>147.9</v>
       </c>
       <c r="HG5" t="n">
-        <v>21.64</v>
+        <v>21.73</v>
       </c>
       <c r="HH5" t="n">
-        <v>268.12</v>
+        <v>268.17</v>
       </c>
       <c r="HI5" t="n">
-        <v>64.13</v>
+        <v>63.92</v>
       </c>
       <c r="HJ5" t="n">
-        <v>401.28</v>
+        <v>403.26</v>
       </c>
       <c r="HK5" t="n">
-        <v>207.56</v>
+        <v>207.77</v>
       </c>
       <c r="HL5" t="n">
-        <v>28.16</v>
+        <v>28.24</v>
       </c>
       <c r="HM5" t="n">
-        <v>16.93</v>
+        <v>17.01</v>
       </c>
       <c r="HN5" t="n">
-        <v>136.44</v>
+        <v>136.64</v>
       </c>
       <c r="HO5" t="n">
-        <v>34.1</v>
+        <v>34.16</v>
       </c>
       <c r="HP5" t="n">
-        <v>253.7</v>
+        <v>256.94</v>
       </c>
       <c r="HQ5" t="n">
         <v>16.85</v>
       </c>
       <c r="HR5" t="n">
-        <v>169.59</v>
+        <v>169.29</v>
       </c>
       <c r="HS5" t="n">
-        <v>263.02</v>
+        <v>262.75</v>
       </c>
       <c r="HT5" t="n">
-        <v>195.81</v>
+        <v>196.26</v>
       </c>
       <c r="HU5" t="n">
-        <v>447.52</v>
+        <v>447.78</v>
       </c>
       <c r="HV5" t="n">
-        <v>260.89</v>
+        <v>261.98</v>
       </c>
       <c r="HW5" t="n">
-        <v>70.95999999999999</v>
+        <v>71.02</v>
       </c>
       <c r="HX5" t="n">
-        <v>86.04000000000001</v>
+        <v>86.66</v>
       </c>
       <c r="HY5" t="n">
-        <v>281.42</v>
+        <v>280.04</v>
       </c>
       <c r="HZ5" t="n">
-        <v>27.28</v>
+        <v>27.36</v>
       </c>
       <c r="IA5" t="n">
-        <v>165.56</v>
+        <v>166.34</v>
       </c>
       <c r="IB5" t="n">
-        <v>85.81</v>
+        <v>86.44</v>
       </c>
       <c r="IC5" t="n">
-        <v>57.2</v>
+        <v>57.19</v>
       </c>
       <c r="ID5" t="n">
-        <v>27.34</v>
+        <v>27.51</v>
       </c>
       <c r="IE5" t="n">
-        <v>576</v>
+        <v>579.48</v>
       </c>
       <c r="IF5" t="n">
-        <v>598.8200000000001</v>
+        <v>600.3</v>
       </c>
       <c r="IG5" t="n">
-        <v>18.52</v>
+        <v>18.49</v>
       </c>
       <c r="IH5" t="n">
-        <v>31.75</v>
+        <v>31.84</v>
       </c>
       <c r="II5" t="n">
-        <v>193.53</v>
+        <v>193.04</v>
       </c>
       <c r="IJ5" t="n">
-        <v>93.04000000000001</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="IK5" t="n">
-        <v>172.95</v>
+        <v>173.85</v>
       </c>
       <c r="IL5" t="n">
-        <v>167.85</v>
+        <v>167.3</v>
       </c>
       <c r="IM5" t="n">
-        <v>129.96</v>
+        <v>130.14</v>
       </c>
       <c r="IN5" t="n">
-        <v>155.1</v>
+        <v>154.84</v>
       </c>
       <c r="IO5" t="n">
-        <v>90.45</v>
+        <v>90.62</v>
       </c>
       <c r="IP5" t="n">
-        <v>279.01</v>
+        <v>279.62</v>
       </c>
       <c r="IQ5" t="n">
-        <v>36.17</v>
+        <v>36.11</v>
       </c>
       <c r="IR5" t="n">
-        <v>32.32</v>
+        <v>32.38</v>
       </c>
       <c r="IS5" t="n">
-        <v>17.89</v>
+        <v>17.93</v>
       </c>
       <c r="IT5" t="n">
-        <v>183.73</v>
+        <v>184.74</v>
       </c>
       <c r="IU5" t="n">
-        <v>135.06</v>
+        <v>135.51</v>
       </c>
       <c r="IV5" t="n">
-        <v>21.49</v>
+        <v>21.53</v>
       </c>
       <c r="IW5" t="n">
-        <v>26.78</v>
+        <v>26.71</v>
       </c>
       <c r="IX5" t="n">
-        <v>758.01</v>
+        <v>756.13</v>
       </c>
       <c r="IY5" t="n">
         <v>29.28</v>
       </c>
       <c r="IZ5" t="n">
-        <v>65.22</v>
+        <v>65.14</v>
       </c>
       <c r="JA5" t="n">
-        <v>195.15</v>
+        <v>195.5</v>
       </c>
       <c r="JB5" t="n">
-        <v>246.91</v>
+        <v>245.69</v>
       </c>
       <c r="JC5" t="n">
-        <v>86.51000000000001</v>
+        <v>86.45</v>
       </c>
       <c r="JD5" t="n">
-        <v>57.51</v>
+        <v>57.7</v>
       </c>
       <c r="JE5" t="n">
-        <v>43.99</v>
+        <v>43.72</v>
       </c>
       <c r="JF5" t="n">
-        <v>130.63</v>
+        <v>131.2</v>
       </c>
       <c r="JG5" t="n">
-        <v>121.65</v>
+        <v>122.51</v>
       </c>
       <c r="JH5" t="n">
-        <v>856.13</v>
+        <v>856.38</v>
       </c>
       <c r="JI5" t="n">
-        <v>153.88</v>
+        <v>154.54</v>
       </c>
       <c r="JJ5" t="n">
-        <v>39.44</v>
+        <v>39.5</v>
       </c>
       <c r="JK5" t="n">
-        <v>428.21</v>
+        <v>428</v>
       </c>
       <c r="JL5" t="n">
-        <v>249.94</v>
+        <v>250.75</v>
       </c>
       <c r="JM5" t="n">
-        <v>370.73</v>
+        <v>372.2</v>
       </c>
       <c r="JN5" t="n">
-        <v>78.16</v>
+        <v>78.12</v>
       </c>
       <c r="JO5" t="n">
-        <v>199.96</v>
+        <v>200.38</v>
       </c>
       <c r="JP5" t="n">
-        <v>28.49</v>
+        <v>28.86</v>
       </c>
       <c r="JQ5" t="n">
-        <v>159.41</v>
+        <v>159.17</v>
       </c>
       <c r="JR5" t="n">
-        <v>192.9</v>
+        <v>193.76</v>
       </c>
       <c r="JS5" t="n">
-        <v>287.81</v>
+        <v>288.28</v>
       </c>
       <c r="JT5" t="n">
-        <v>229.77</v>
+        <v>230.14</v>
       </c>
       <c r="JU5" t="n">
-        <v>532.1900000000001</v>
+        <v>534.29</v>
       </c>
       <c r="JV5" t="n">
-        <v>77.22</v>
+        <v>77.3</v>
       </c>
       <c r="JW5" t="n">
-        <v>565.33</v>
+        <v>568.46</v>
       </c>
       <c r="JX5" t="n">
-        <v>35.27</v>
+        <v>35.2</v>
       </c>
       <c r="JY5" t="n">
-        <v>75.59</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="JZ5" t="n">
-        <v>303.93</v>
+        <v>304.5</v>
       </c>
       <c r="KA5" t="n">
-        <v>596.12</v>
+        <v>599.61</v>
       </c>
       <c r="KB5" t="n">
-        <v>86.33</v>
+        <v>86.08</v>
       </c>
       <c r="KC5" t="n">
-        <v>82.78</v>
+        <v>83.2</v>
       </c>
       <c r="KD5" t="n">
-        <v>707.72</v>
+        <v>715.88</v>
       </c>
       <c r="KE5" t="n">
-        <v>82.06999999999999</v>
+        <v>82.17</v>
       </c>
       <c r="KF5" t="n">
-        <v>1272.13</v>
+        <v>1273.72</v>
       </c>
       <c r="KG5" t="n">
-        <v>37.96</v>
+        <v>37.98</v>
       </c>
       <c r="KH5" t="n">
-        <v>58.08</v>
+        <v>57.88</v>
       </c>
       <c r="KI5" t="n">
-        <v>107.45</v>
+        <v>106.63</v>
       </c>
       <c r="KJ5" t="n">
-        <v>407.15</v>
+        <v>409.1</v>
       </c>
       <c r="KK5" t="n">
-        <v>157.2</v>
+        <v>157.47</v>
       </c>
       <c r="KL5" t="n">
-        <v>35.92</v>
+        <v>35.75</v>
       </c>
       <c r="KM5" t="n">
-        <v>119.09</v>
+        <v>119.23</v>
       </c>
       <c r="KN5" t="n">
-        <v>268.13</v>
+        <v>269.1</v>
       </c>
       <c r="KO5" t="n">
-        <v>60.38</v>
+        <v>60.53</v>
       </c>
       <c r="KP5" t="n">
-        <v>61</v>
+        <v>61.11</v>
       </c>
       <c r="KQ5" t="n">
-        <v>696</v>
+        <v>688.25</v>
       </c>
       <c r="KR5" t="n">
-        <v>50.69</v>
+        <v>50.95</v>
       </c>
       <c r="KS5" t="n">
-        <v>515.5599999999999</v>
+        <v>518.62</v>
       </c>
       <c r="KT5" t="n">
-        <v>140.09</v>
+        <v>140.58</v>
       </c>
       <c r="KU5" t="n">
-        <v>26.92</v>
+        <v>27.08</v>
       </c>
       <c r="KV5" t="n">
-        <v>423.92</v>
+        <v>425.16</v>
       </c>
       <c r="KW5" t="n">
-        <v>568.97</v>
+        <v>572.38</v>
       </c>
       <c r="KX5" t="n">
-        <v>80.84999999999999</v>
+        <v>81.23</v>
       </c>
       <c r="KY5" t="n">
-        <v>120.23</v>
+        <v>120.52</v>
       </c>
       <c r="KZ5" t="n">
-        <v>1025.18</v>
+        <v>1034.19</v>
       </c>
       <c r="LA5" t="n">
-        <v>47.45</v>
+        <v>47.44</v>
       </c>
       <c r="LB5" t="n">
-        <v>29.97</v>
+        <v>30.16</v>
       </c>
       <c r="LC5" t="n">
-        <v>68.02</v>
+        <v>68.42</v>
       </c>
       <c r="LD5" t="n">
-        <v>76.98</v>
+        <v>77.47</v>
       </c>
       <c r="LE5" t="n">
-        <v>39.79</v>
+        <v>39.8</v>
       </c>
       <c r="LF5" t="n">
-        <v>218.37</v>
+        <v>219.58</v>
       </c>
       <c r="LG5" t="n">
-        <v>257.22</v>
+        <v>258.53</v>
       </c>
       <c r="LH5" t="n">
-        <v>114.02</v>
+        <v>113.64</v>
       </c>
       <c r="LI5" t="n">
-        <v>441.49</v>
+        <v>441.37</v>
       </c>
       <c r="LJ5" t="n">
-        <v>26.81</v>
+        <v>27.15</v>
       </c>
       <c r="LK5" t="n">
-        <v>111.72</v>
+        <v>111.82</v>
       </c>
       <c r="LL5" t="n">
-        <v>141.62</v>
+        <v>142.66</v>
       </c>
       <c r="LM5" t="n">
         <v>139.1</v>
       </c>
       <c r="LN5" t="n">
-        <v>7238.93</v>
+        <v>7233.48</v>
       </c>
       <c r="LO5" t="n">
-        <v>230.48</v>
+        <v>228.46</v>
       </c>
       <c r="LP5" t="n">
-        <v>1295.72</v>
+        <v>1295.37</v>
       </c>
       <c r="LQ5" t="n">
-        <v>48.94</v>
+        <v>48.76</v>
       </c>
       <c r="LR5" t="n">
-        <v>207.33</v>
+        <v>209.06</v>
       </c>
       <c r="LS5" t="n">
-        <v>82.91</v>
+        <v>83.37</v>
       </c>
       <c r="LT5" t="n">
-        <v>52.28</v>
+        <v>51.84</v>
       </c>
       <c r="LU5" t="n">
-        <v>98.79000000000001</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="LV5" t="n">
-        <v>178.23</v>
+        <v>179.47</v>
       </c>
       <c r="LW5" t="n">
-        <v>97.06999999999999</v>
+        <v>97.59</v>
       </c>
       <c r="LX5" t="n">
-        <v>105.84</v>
+        <v>106.57</v>
       </c>
       <c r="LY5" t="n">
-        <v>211.92</v>
+        <v>211.93</v>
       </c>
       <c r="LZ5" t="n">
         <v>124.17</v>
       </c>
       <c r="MA5" t="n">
-        <v>206.01</v>
+        <v>208.04</v>
       </c>
       <c r="MB5" t="n">
-        <v>11.24</v>
+        <v>11.28</v>
       </c>
       <c r="MC5" t="n">
-        <v>697.3200000000001</v>
+        <v>694.33</v>
       </c>
       <c r="MD5" t="n">
-        <v>148.29</v>
+        <v>148.24</v>
       </c>
       <c r="ME5" t="n">
-        <v>211.35</v>
+        <v>213.23</v>
       </c>
       <c r="MF5" t="n">
-        <v>78.23</v>
+        <v>78.52</v>
       </c>
       <c r="MG5" t="n">
-        <v>96.09</v>
+        <v>96.41</v>
       </c>
       <c r="MH5" t="n">
-        <v>143.32</v>
+        <v>143.93</v>
       </c>
       <c r="MI5" t="n">
-        <v>25.54</v>
+        <v>25.51</v>
       </c>
       <c r="MJ5" t="n">
-        <v>15.3</v>
+        <v>15.38</v>
       </c>
       <c r="MK5" t="n">
-        <v>148.55</v>
+        <v>148.97</v>
       </c>
       <c r="ML5" t="n">
-        <v>130.63</v>
+        <v>130.03</v>
       </c>
       <c r="MM5" t="n">
-        <v>89.73999999999999</v>
+        <v>89.84</v>
       </c>
       <c r="MN5" t="n">
         <v>196.33</v>
       </c>
       <c r="MO5" t="n">
-        <v>341.5</v>
+        <v>343.33</v>
       </c>
       <c r="MP5" t="n">
-        <v>118.47</v>
+        <v>119.27</v>
       </c>
       <c r="MQ5" t="n">
-        <v>33.96</v>
+        <v>34.15</v>
       </c>
       <c r="MR5" t="n">
-        <v>86.29000000000001</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="MS5" t="n">
-        <v>164.92</v>
+        <v>165.36</v>
       </c>
       <c r="MT5" t="n">
-        <v>264.02</v>
+        <v>263.68</v>
       </c>
       <c r="MU5" t="n">
-        <v>120.75</v>
+        <v>121.2</v>
       </c>
       <c r="MV5" t="n">
-        <v>111.54</v>
+        <v>111.77</v>
       </c>
       <c r="MW5" t="n">
-        <v>84.84</v>
+        <v>84.95</v>
       </c>
       <c r="MX5" t="n">
-        <v>170.17</v>
+        <v>170.6</v>
       </c>
       <c r="MY5" t="n">
-        <v>296.29</v>
+        <v>296.62</v>
       </c>
       <c r="MZ5" t="n">
-        <v>105.38</v>
+        <v>105.46</v>
       </c>
       <c r="NA5" t="n">
-        <v>78.26000000000001</v>
+        <v>77.88</v>
       </c>
       <c r="NB5" t="n">
-        <v>283.56</v>
+        <v>287.69</v>
       </c>
       <c r="NC5" t="n">
-        <v>173.39</v>
+        <v>173.41</v>
       </c>
       <c r="ND5" t="n">
-        <v>169.46</v>
+        <v>169.44</v>
       </c>
       <c r="NE5" t="n">
-        <v>285.42</v>
+        <v>286.63</v>
       </c>
       <c r="NF5" t="n">
-        <v>159.77</v>
+        <v>160.97</v>
       </c>
       <c r="NG5" t="n">
-        <v>123.87</v>
+        <v>123.47</v>
       </c>
       <c r="NH5" t="n">
-        <v>72.31999999999999</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="NI5" t="n">
-        <v>678.46</v>
+        <v>680.05</v>
       </c>
       <c r="NJ5" t="n">
-        <v>24.61</v>
+        <v>24.62</v>
       </c>
       <c r="NK5" t="n">
-        <v>227.69</v>
+        <v>228.11</v>
       </c>
       <c r="NL5" t="n">
-        <v>230.24</v>
+        <v>230.27</v>
       </c>
       <c r="NM5" t="n">
-        <v>111.34</v>
+        <v>111.49</v>
       </c>
       <c r="NN5" t="n">
-        <v>299.34</v>
+        <v>300.83</v>
       </c>
       <c r="NO5" t="n">
-        <v>49.72</v>
+        <v>49.97</v>
       </c>
       <c r="NP5" t="n">
-        <v>572.88</v>
+        <v>571.5</v>
       </c>
       <c r="NQ5" t="n">
-        <v>138.37</v>
+        <v>139.06</v>
       </c>
       <c r="NR5" t="n">
-        <v>259.52</v>
+        <v>261.9</v>
       </c>
       <c r="NS5" t="n">
-        <v>540.25</v>
+        <v>542.36</v>
       </c>
       <c r="NT5" t="n">
-        <v>327.39</v>
+        <v>328.32</v>
       </c>
       <c r="NU5" t="n">
-        <v>205.23</v>
+        <v>206.52</v>
       </c>
       <c r="NV5" t="n">
-        <v>42.72</v>
+        <v>42.58</v>
       </c>
       <c r="NW5" t="n">
-        <v>102.68</v>
+        <v>103.1</v>
       </c>
       <c r="NX5" t="n">
-        <v>84.37</v>
+        <v>84.64</v>
       </c>
       <c r="NY5" t="n">
-        <v>987.97</v>
+        <v>996.08</v>
       </c>
       <c r="NZ5" t="n">
-        <v>351.45</v>
+        <v>352.75</v>
       </c>
       <c r="OA5" t="n">
-        <v>185.97</v>
+        <v>186.06</v>
       </c>
       <c r="OB5" t="n">
-        <v>67.16</v>
+        <v>66.89</v>
       </c>
       <c r="OC5" t="n">
-        <v>100.49</v>
+        <v>100.36</v>
       </c>
       <c r="OD5" t="n">
-        <v>340.73</v>
+        <v>342.91</v>
       </c>
       <c r="OE5" t="n">
-        <v>85.45999999999999</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="OF5" t="n">
         <v>29.96</v>
       </c>
       <c r="OG5" t="n">
-        <v>112.85</v>
+        <v>112.88</v>
       </c>
       <c r="OH5" t="n">
-        <v>100.78</v>
+        <v>100.43</v>
       </c>
       <c r="OI5" t="n">
-        <v>137.78</v>
+        <v>139.17</v>
       </c>
       <c r="OJ5" t="n">
-        <v>219.56</v>
+        <v>219.73</v>
       </c>
       <c r="OK5" t="n">
-        <v>383.79</v>
+        <v>385.23</v>
       </c>
       <c r="OL5" t="n">
-        <v>55.27</v>
+        <v>55.72</v>
       </c>
       <c r="OM5" t="n">
-        <v>65.17</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="ON5" t="n">
-        <v>523.26</v>
+        <v>525.3099999999999</v>
       </c>
       <c r="OO5" t="n">
-        <v>70</v>
+        <v>70.03</v>
       </c>
       <c r="OP5" t="n">
-        <v>264.05</v>
+        <v>262.83</v>
       </c>
       <c r="OQ5" t="n">
-        <v>107.27</v>
+        <v>107.83</v>
       </c>
       <c r="OR5" t="n">
-        <v>214.46</v>
+        <v>216.4</v>
       </c>
       <c r="OS5" t="n">
-        <v>88.98999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="OT5" t="n">
         <v>209.56</v>
       </c>
       <c r="OU5" t="n">
-        <v>129.87</v>
+        <v>129.86</v>
       </c>
       <c r="OV5" t="n">
-        <v>154.32</v>
+        <v>154.23</v>
       </c>
       <c r="OW5" t="n">
-        <v>494.67</v>
+        <v>495.5</v>
       </c>
       <c r="OX5" t="n">
-        <v>169.53</v>
+        <v>169.2</v>
       </c>
       <c r="OY5" t="n">
-        <v>115.2</v>
+        <v>114.88</v>
       </c>
       <c r="OZ5" t="n">
-        <v>352.69</v>
+        <v>353.61</v>
       </c>
       <c r="PA5" t="n">
-        <v>186.7</v>
+        <v>186.02</v>
       </c>
       <c r="PB5" t="n">
-        <v>72.20999999999999</v>
+        <v>72.33</v>
       </c>
       <c r="PC5" t="n">
-        <v>523.27</v>
+        <v>523.21</v>
       </c>
       <c r="PD5" t="n">
-        <v>123.44</v>
+        <v>123.81</v>
       </c>
       <c r="PE5" t="n">
-        <v>57.34</v>
+        <v>57.73</v>
       </c>
       <c r="PF5" t="n">
-        <v>362.04</v>
+        <v>362.4</v>
       </c>
       <c r="PG5" t="n">
-        <v>1293.71</v>
+        <v>1298.53</v>
       </c>
       <c r="PH5" t="n">
-        <v>238.05</v>
+        <v>237.88</v>
       </c>
       <c r="PI5" t="n">
-        <v>74.77</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="PJ5" t="n">
-        <v>47.46</v>
+        <v>47.57</v>
       </c>
       <c r="PK5" t="n">
-        <v>636.88</v>
+        <v>638.29</v>
       </c>
       <c r="PL5" t="n">
-        <v>57.38</v>
+        <v>57.83</v>
       </c>
       <c r="PM5" t="n">
-        <v>47.84</v>
+        <v>47.88</v>
       </c>
       <c r="PN5" t="n">
-        <v>80.94</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="PO5" t="n">
-        <v>42.79</v>
+        <v>42.94</v>
       </c>
       <c r="PP5" t="n">
-        <v>368.91</v>
+        <v>368.89</v>
       </c>
       <c r="PQ5" t="n">
-        <v>250.95</v>
+        <v>251.15</v>
       </c>
       <c r="PR5" t="n">
-        <v>102.73</v>
+        <v>103.21</v>
       </c>
       <c r="PS5" t="n">
-        <v>115.3</v>
+        <v>115.28</v>
       </c>
       <c r="PT5" t="n">
-        <v>720.55</v>
+        <v>718.41</v>
       </c>
       <c r="PU5" t="n">
-        <v>499.36</v>
+        <v>500.11</v>
       </c>
       <c r="PV5" t="n">
-        <v>182.92</v>
+        <v>182.88</v>
       </c>
       <c r="PW5" t="n">
-        <v>138.58</v>
+        <v>138.24</v>
       </c>
       <c r="PX5" t="n">
-        <v>66.55</v>
+        <v>66.75</v>
       </c>
       <c r="PY5" t="n">
-        <v>230.35</v>
+        <v>230.9</v>
       </c>
       <c r="PZ5" t="n">
-        <v>292.75</v>
+        <v>292.54</v>
       </c>
       <c r="QA5" t="n">
-        <v>41.06</v>
+        <v>41.14</v>
       </c>
       <c r="QB5" t="n">
-        <v>459.07</v>
+        <v>461.73</v>
       </c>
       <c r="QC5" t="n">
         <v>10.81</v>
       </c>
       <c r="QD5" t="n">
-        <v>30.35</v>
+        <v>30.3</v>
       </c>
       <c r="QE5" t="n">
-        <v>354.54</v>
+        <v>356.41</v>
       </c>
       <c r="QF5" t="n">
         <v>169.16</v>
       </c>
       <c r="QG5" t="n">
-        <v>272.94</v>
+        <v>272.76</v>
       </c>
       <c r="QH5" t="n">
         <v>60.41</v>
       </c>
       <c r="QI5" t="n">
-        <v>1019.97</v>
+        <v>1023.78</v>
       </c>
       <c r="QJ5" t="n">
-        <v>187.36</v>
+        <v>188.09</v>
       </c>
       <c r="QK5" t="n">
-        <v>10.95</v>
+        <v>11.02</v>
       </c>
       <c r="QL5" t="n">
-        <v>103.21</v>
+        <v>103.64</v>
       </c>
       <c r="QM5" t="n">
-        <v>109.17</v>
+        <v>109.42</v>
       </c>
       <c r="QN5" t="n">
-        <v>228.56</v>
+        <v>228.11</v>
       </c>
       <c r="QO5" t="n">
-        <v>375.85</v>
+        <v>376.23</v>
       </c>
       <c r="QP5" t="n">
-        <v>103.13</v>
+        <v>103.09</v>
       </c>
       <c r="QQ5" t="n">
-        <v>80.76000000000001</v>
+        <v>80.67</v>
       </c>
       <c r="QR5" t="n">
-        <v>150.04</v>
+        <v>150.6</v>
       </c>
       <c r="QS5" t="n">
-        <v>208.46</v>
+        <v>210.37</v>
       </c>
       <c r="QT5" t="n">
-        <v>71.42</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="QU5" t="n">
-        <v>29.62</v>
+        <v>29.69</v>
       </c>
       <c r="QV5" t="n">
-        <v>57.66</v>
+        <v>57.73</v>
       </c>
       <c r="QW5" t="n">
-        <v>320.73</v>
+        <v>321.84</v>
       </c>
       <c r="QX5" t="n">
-        <v>91.92</v>
+        <v>90.98</v>
       </c>
       <c r="QY5" t="n">
-        <v>68.64</v>
+        <v>68.47</v>
       </c>
       <c r="QZ5" t="n">
-        <v>130.41</v>
+        <v>130.33</v>
       </c>
       <c r="RA5" t="n">
-        <v>146.87</v>
+        <v>146.96</v>
       </c>
       <c r="RB5" t="n">
-        <v>328.9</v>
+        <v>330.08</v>
       </c>
       <c r="RC5" t="n">
-        <v>102.13</v>
+        <v>101.89</v>
       </c>
       <c r="RD5" t="n">
-        <v>156.15</v>
+        <v>156.19</v>
       </c>
       <c r="RE5" s="2" t="n">
         <v>45706</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>149.89</v>
+      </c>
+      <c r="B6" t="n">
+        <v>67.31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>131.98</v>
+      </c>
+      <c r="D6" t="n">
+        <v>197.07</v>
+      </c>
+      <c r="E6" t="n">
+        <v>390</v>
+      </c>
+      <c r="F6" t="n">
+        <v>456.57</v>
+      </c>
+      <c r="G6" t="n">
+        <v>114.54</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="I6" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>137.02</v>
+      </c>
+      <c r="K6" t="n">
+        <v>316.84</v>
+      </c>
+      <c r="L6" t="n">
+        <v>157.77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>100.24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>83.65000000000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>95.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>201.12</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>126.41</v>
+      </c>
+      <c r="R6" t="n">
+        <v>61.59</v>
+      </c>
+      <c r="S6" t="n">
+        <v>191.41</v>
+      </c>
+      <c r="T6" t="n">
+        <v>185.09</v>
+      </c>
+      <c r="U6" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>226.43</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="X6" t="n">
+        <v>97.89</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>102.97</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>309.42</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>188.31</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>127.89</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>548.79</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>188.69</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>294.04</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>241.24</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>394.48</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>244.64</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>173.73</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>66.56999999999999</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>88.56</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>45.94</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>103.83</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>326.98</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>148.67</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>298.76</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>312.91</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3401.07</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>217.47</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>182.69</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>591.73</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>46.84</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>48.95</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>45.94</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>227.28</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>483.18</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>91.02</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>136.52</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>985.59</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>166.62</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>88.20999999999999</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>185.95</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>5104.01</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>105.56</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>228.46</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>238.66</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>69.84</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>99.06</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>274.62</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>37.92</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>118.99</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>38.49</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>209.69</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>87.34</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>352.75</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>143.49</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>194.33</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>244.97</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>57.48</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>164.63</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>361.09</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>157.04</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>53.72</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>266.1</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>104.24</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>297.42</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>136.47</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>207.98</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>83.84</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>47.28</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>150.87</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>250.41</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>88.31999999999999</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>87.31999999999999</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>99.45999999999999</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>172.49</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>59.62</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>376.62</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>63.54</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>1061.35</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>449.52</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>89.15000000000001</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>385.63</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>204.74</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>196.85</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>154.65</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>508.76</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>120.86</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>37.52</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>160.06</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>169.46</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>203.07</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>75.52</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>75.51000000000001</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>420.37</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>204.76</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>126.46</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>309.07</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>266.03</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>52.33</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>74.55</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>129.17</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>391.87</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>124.31</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>87.18000000000001</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>134.38</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>258.17</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>242.81</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>938.34</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>70.97</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>290.78</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>71.41</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>336.17</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>62.67</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>206.49</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>153.56</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>110.13</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>310.16</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>465.62</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>75.48</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>104.78</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>266.62</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>162.52</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>236.26</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>37.67</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>114.46</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="GH6" t="n">
+        <v>57.39</v>
+      </c>
+      <c r="GI6" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="GJ6" t="n">
+        <v>38.51</v>
+      </c>
+      <c r="GK6" t="n">
+        <v>241.54</v>
+      </c>
+      <c r="GL6" t="n">
+        <v>516.55</v>
+      </c>
+      <c r="GM6" t="n">
+        <v>210.25</v>
+      </c>
+      <c r="GN6" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="GO6" t="n">
+        <v>142.38</v>
+      </c>
+      <c r="GP6" t="n">
+        <v>243.91</v>
+      </c>
+      <c r="GQ6" t="n">
+        <v>57.91</v>
+      </c>
+      <c r="GR6" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="GS6" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>107.51</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>106.47</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>123.64</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>667.36</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>112.95</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>61.19</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>320.22</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>77.89</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>163.73</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>149.13</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>269.25</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>394.96</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>210.56</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>139.22</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>265.27</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>174.03</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>264.01</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>198.32</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>451.24</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>263.78</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>85.66</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>283.92</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>166.82</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>81.88</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>57.07</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>581.74</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>607.65</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="II6" t="n">
+        <v>196.13</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>92.77</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>168.89</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>130.19</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>157.69</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>90.34</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>278.96</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>36</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>184.97</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>137.83</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>772.6900000000001</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>65.34</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>194.45</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>247.82</v>
+      </c>
+      <c r="JC6" t="n">
+        <v>87.61</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>57.17</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>43.97</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>131.57</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>866.95</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>153.62</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>432.53</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>246.43</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>366.46</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>77.41</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>156.33</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>191.31</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>287.44</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>230.83</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>521.28</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>76.58</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>568.6900000000001</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>78.55</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>301.57</v>
+      </c>
+      <c r="KA6" t="n">
+        <v>601.4</v>
+      </c>
+      <c r="KB6" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>703.02</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>83.09</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>1303.83</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>104.23</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>414.36</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>157.17</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>118.37</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>287.13</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>61.86</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>691.52</v>
+      </c>
+      <c r="KR6" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>518.54</v>
+      </c>
+      <c r="KT6" t="n">
+        <v>140.49</v>
+      </c>
+      <c r="KU6" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="KV6" t="n">
+        <v>437.77</v>
+      </c>
+      <c r="KW6" t="n">
+        <v>574.11</v>
+      </c>
+      <c r="KX6" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>124.34</v>
+      </c>
+      <c r="KZ6" t="n">
+        <v>1041.94</v>
+      </c>
+      <c r="LA6" t="n">
+        <v>47.35</v>
+      </c>
+      <c r="LB6" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="LC6" t="n">
+        <v>68.95999999999999</v>
+      </c>
+      <c r="LD6" t="n">
+        <v>76.66</v>
+      </c>
+      <c r="LE6" t="n">
+        <v>40.03</v>
+      </c>
+      <c r="LF6" t="n">
+        <v>217.52</v>
+      </c>
+      <c r="LG6" t="n">
+        <v>248.41</v>
+      </c>
+      <c r="LH6" t="n">
+        <v>113.53</v>
+      </c>
+      <c r="LI6" t="n">
+        <v>433.77</v>
+      </c>
+      <c r="LJ6" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="LK6" t="n">
+        <v>112.45</v>
+      </c>
+      <c r="LL6" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="LM6" t="n">
+        <v>138.99</v>
+      </c>
+      <c r="LN6" t="n">
+        <v>7152.96</v>
+      </c>
+      <c r="LO6" t="n">
+        <v>244.93</v>
+      </c>
+      <c r="LP6" t="n">
+        <v>1293.99</v>
+      </c>
+      <c r="LQ6" t="n">
+        <v>50.93</v>
+      </c>
+      <c r="LR6" t="n">
+        <v>205.28</v>
+      </c>
+      <c r="LS6" t="n">
+        <v>83.53</v>
+      </c>
+      <c r="LT6" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="LU6" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="LV6" t="n">
+        <v>181.14</v>
+      </c>
+      <c r="LW6" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="LX6" t="n">
+        <v>107.03</v>
+      </c>
+      <c r="LY6" t="n">
+        <v>212.33</v>
+      </c>
+      <c r="LZ6" t="n">
+        <v>111.71</v>
+      </c>
+      <c r="MA6" t="n">
+        <v>204.95</v>
+      </c>
+      <c r="MB6" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="MC6" t="n">
+        <v>701.04</v>
+      </c>
+      <c r="MD6" t="n">
+        <v>150.02</v>
+      </c>
+      <c r="ME6" t="n">
+        <v>216.2</v>
+      </c>
+      <c r="MF6" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="MG6" t="n">
+        <v>96.09</v>
+      </c>
+      <c r="MH6" t="n">
+        <v>145.74</v>
+      </c>
+      <c r="MI6" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="MJ6" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="MK6" t="n">
+        <v>149.63</v>
+      </c>
+      <c r="ML6" t="n">
+        <v>129.97</v>
+      </c>
+      <c r="MM6" t="n">
+        <v>90.38</v>
+      </c>
+      <c r="MN6" t="n">
+        <v>194.01</v>
+      </c>
+      <c r="MO6" t="n">
+        <v>340.02</v>
+      </c>
+      <c r="MP6" t="n">
+        <v>116.68</v>
+      </c>
+      <c r="MQ6" t="n">
+        <v>34.31</v>
+      </c>
+      <c r="MR6" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="MS6" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="MT6" t="n">
+        <v>269.13</v>
+      </c>
+      <c r="MU6" t="n">
+        <v>121.48</v>
+      </c>
+      <c r="MV6" t="n">
+        <v>111.62</v>
+      </c>
+      <c r="MW6" t="n">
+        <v>85.78</v>
+      </c>
+      <c r="MX6" t="n">
+        <v>169.51</v>
+      </c>
+      <c r="MY6" t="n">
+        <v>297.41</v>
+      </c>
+      <c r="MZ6" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="NA6" t="n">
+        <v>78.66</v>
+      </c>
+      <c r="NB6" t="n">
+        <v>291.46</v>
+      </c>
+      <c r="NC6" t="n">
+        <v>174.98</v>
+      </c>
+      <c r="ND6" t="n">
+        <v>171.76</v>
+      </c>
+      <c r="NE6" t="n">
+        <v>286.23</v>
+      </c>
+      <c r="NF6" t="n">
+        <v>159.37</v>
+      </c>
+      <c r="NG6" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="NH6" t="n">
+        <v>73.36</v>
+      </c>
+      <c r="NI6" t="n">
+        <v>685.34</v>
+      </c>
+      <c r="NJ6" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="NK6" t="n">
+        <v>229.29</v>
+      </c>
+      <c r="NL6" t="n">
+        <v>234.23</v>
+      </c>
+      <c r="NM6" t="n">
+        <v>114.95</v>
+      </c>
+      <c r="NN6" t="n">
+        <v>298.59</v>
+      </c>
+      <c r="NO6" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="NP6" t="n">
+        <v>576.49</v>
+      </c>
+      <c r="NQ6" t="n">
+        <v>139.73</v>
+      </c>
+      <c r="NR6" t="n">
+        <v>263.85</v>
+      </c>
+      <c r="NS6" t="n">
+        <v>542.01</v>
+      </c>
+      <c r="NT6" t="n">
+        <v>323.86</v>
+      </c>
+      <c r="NU6" t="n">
+        <v>207.56</v>
+      </c>
+      <c r="NV6" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="NW6" t="n">
+        <v>102.94</v>
+      </c>
+      <c r="NX6" t="n">
+        <v>85.26000000000001</v>
+      </c>
+      <c r="NY6" t="n">
+        <v>984.51</v>
+      </c>
+      <c r="NZ6" t="n">
+        <v>351.1</v>
+      </c>
+      <c r="OA6" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="OB6" t="n">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="OC6" t="n">
+        <v>102.89</v>
+      </c>
+      <c r="OD6" t="n">
+        <v>342.41</v>
+      </c>
+      <c r="OE6" t="n">
+        <v>86.33</v>
+      </c>
+      <c r="OF6" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="OG6" t="n">
+        <v>112.37</v>
+      </c>
+      <c r="OH6" t="n">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="OI6" t="n">
+        <v>136.54</v>
+      </c>
+      <c r="OJ6" t="n">
+        <v>221.35</v>
+      </c>
+      <c r="OK6" t="n">
+        <v>388.08</v>
+      </c>
+      <c r="OL6" t="n">
+        <v>60.13</v>
+      </c>
+      <c r="OM6" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="ON6" t="n">
+        <v>501.16</v>
+      </c>
+      <c r="OO6" t="n">
+        <v>70.56999999999999</v>
+      </c>
+      <c r="OP6" t="n">
+        <v>262.74</v>
+      </c>
+      <c r="OQ6" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="OR6" t="n">
+        <v>215.33</v>
+      </c>
+      <c r="OS6" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="OT6" t="n">
+        <v>209.78</v>
+      </c>
+      <c r="OU6" t="n">
+        <v>130.64</v>
+      </c>
+      <c r="OV6" t="n">
+        <v>155.71</v>
+      </c>
+      <c r="OW6" t="n">
+        <v>501.61</v>
+      </c>
+      <c r="OX6" t="n">
+        <v>174.57</v>
+      </c>
+      <c r="OY6" t="n">
+        <v>115.76</v>
+      </c>
+      <c r="OZ6" t="n">
+        <v>360.2</v>
+      </c>
+      <c r="PA6" t="n">
+        <v>195.98</v>
+      </c>
+      <c r="PB6" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="PC6" t="n">
+        <v>530.87</v>
+      </c>
+      <c r="PD6" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="PE6" t="n">
+        <v>57.81</v>
+      </c>
+      <c r="PF6" t="n">
+        <v>370.03</v>
+      </c>
+      <c r="PG6" t="n">
+        <v>1343.96</v>
+      </c>
+      <c r="PH6" t="n">
+        <v>242.41</v>
+      </c>
+      <c r="PI6" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="PJ6" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="PK6" t="n">
+        <v>642.23</v>
+      </c>
+      <c r="PL6" t="n">
+        <v>57.52</v>
+      </c>
+      <c r="PM6" t="n">
+        <v>47.04</v>
+      </c>
+      <c r="PN6" t="n">
+        <v>81.05</v>
+      </c>
+      <c r="PO6" t="n">
+        <v>42.56</v>
+      </c>
+      <c r="PP6" t="n">
+        <v>360.27</v>
+      </c>
+      <c r="PQ6" t="n">
+        <v>246.77</v>
+      </c>
+      <c r="PR6" t="n">
+        <v>106.37</v>
+      </c>
+      <c r="PS6" t="n">
+        <v>114.83</v>
+      </c>
+      <c r="PT6" t="n">
+        <v>708.61</v>
+      </c>
+      <c r="PU6" t="n">
+        <v>511.1</v>
+      </c>
+      <c r="PV6" t="n">
+        <v>183.21</v>
+      </c>
+      <c r="PW6" t="n">
+        <v>137.04</v>
+      </c>
+      <c r="PX6" t="n">
+        <v>66.93000000000001</v>
+      </c>
+      <c r="PY6" t="n">
+        <v>231.71</v>
+      </c>
+      <c r="PZ6" t="n">
+        <v>295.7</v>
+      </c>
+      <c r="QA6" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="QB6" t="n">
+        <v>470.73</v>
+      </c>
+      <c r="QC6" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="QD6" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="QE6" t="n">
+        <v>354.74</v>
+      </c>
+      <c r="QF6" t="n">
+        <v>169.09</v>
+      </c>
+      <c r="QG6" t="n">
+        <v>264.62</v>
+      </c>
+      <c r="QH6" t="n">
+        <v>60.63</v>
+      </c>
+      <c r="QI6" t="n">
+        <v>1019.39</v>
+      </c>
+      <c r="QJ6" t="n">
+        <v>193.27</v>
+      </c>
+      <c r="QK6" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="QL6" t="n">
+        <v>103.85</v>
+      </c>
+      <c r="QM6" t="n">
+        <v>111.18</v>
+      </c>
+      <c r="QN6" t="n">
+        <v>228.22</v>
+      </c>
+      <c r="QO6" t="n">
+        <v>378.17</v>
+      </c>
+      <c r="QP6" t="n">
+        <v>103.57</v>
+      </c>
+      <c r="QQ6" t="n">
+        <v>80.23</v>
+      </c>
+      <c r="QR6" t="n">
+        <v>149.36</v>
+      </c>
+      <c r="QS6" t="n">
+        <v>202.51</v>
+      </c>
+      <c r="QT6" t="n">
+        <v>71.42</v>
+      </c>
+      <c r="QU6" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="QV6" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="QW6" t="n">
+        <v>325.22</v>
+      </c>
+      <c r="QX6" t="n">
+        <v>92.27</v>
+      </c>
+      <c r="QY6" t="n">
+        <v>68.95999999999999</v>
+      </c>
+      <c r="QZ6" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="RA6" t="n">
+        <v>148.31</v>
+      </c>
+      <c r="RB6" t="n">
+        <v>324.14</v>
+      </c>
+      <c r="RC6" t="n">
+        <v>103.19</v>
+      </c>
+      <c r="RD6" t="n">
+        <v>156.56</v>
+      </c>
+      <c r="RE6" s="2" t="n">
+        <v>45707</v>
       </c>
     </row>
   </sheetData>
